--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.741780789837665E-13</v>
+        <v>7.654292115652291E-09</v>
       </c>
       <c r="E2">
-        <v>2.741780789837665E-13</v>
+        <v>7.654292115652291E-09</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01931697867496856</v>
+        <v>0.9981312601615195</v>
       </c>
       <c r="E3">
-        <v>0.01931697867496856</v>
+        <v>0.9981312601615195</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>4.890257578315398E-07</v>
+        <v>4.621211096430835E-09</v>
       </c>
       <c r="E4">
-        <v>4.890257578315398E-07</v>
+        <v>4.621211096430835E-09</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999999972998033</v>
+        <v>0.999999998714433</v>
       </c>
       <c r="E5">
-        <v>0.9999999972998033</v>
+        <v>0.999999998714433</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999999965128</v>
+        <v>0.9999999999999925</v>
       </c>
       <c r="E6">
-        <v>0.9999999999965128</v>
+        <v>0.9999999999999925</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999952818</v>
+        <v>0.9999999999999443</v>
       </c>
       <c r="E7">
-        <v>4.71822581005199E-12</v>
+        <v>5.573319583618286E-14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999866800438</v>
+        <v>0.9999999991977113</v>
       </c>
       <c r="E8">
-        <v>1.331995624909155E-08</v>
+        <v>8.022886799352591E-10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9999999999930884</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>6.91158241750145E-12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9999999998388487</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1.611513145149956E-10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.61313533782959</v>
+        <v>5.927690029144287</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
